--- a/Bases de datos/Articulos.xlsx
+++ b/Bases de datos/Articulos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando.Castrillon\PycharmProjects\pythonProject\Alcaldia\Formatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santiago\PycharmProjects\pythonProject\Alcaldia\Ensayos\Mejoras\Bases de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F8E31A-FEAE-4274-85C3-88E9242E1B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0FED86-A249-470D-9677-F19BAAA5CA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Articulo</t>
-  </si>
-  <si>
-    <t>Numero</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Articulo 123</t>
   </si>
@@ -237,7 +231,60 @@
     <t>Alta tension</t>
   </si>
   <si>
-    <t>Retiro a Líneas de Alta Tensión: Debe consultar ante EPM la tensión de las líneas que cruzan el predio, para tener el retiro exacto de estas.</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Retiro a Líneas de Alta Tensión:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Debe consultar ante EPM la tensión de las líneas que cruzan el predio, para tener el retiro exacto de estas.</t>
+    </r>
+  </si>
+  <si>
+    <t>Por medio del cual se prohibe la venta de licor a 100 m a la redonda de lugares donde confluyan niños</t>
+  </si>
+  <si>
+    <t>Ley 1228 del 2008</t>
+  </si>
+  <si>
+    <t>Retiro a carreteras del sistema vial nacional</t>
+  </si>
+  <si>
+    <t>CIIU</t>
+  </si>
+  <si>
+    <t>Retiro quebradas</t>
+  </si>
+  <si>
+    <t>No cumple ARTICULO 77. De los retiros a las quebradas y al río Aburrá.</t>
+  </si>
+  <si>
+    <t>Texto</t>
+  </si>
+  <si>
+    <t>Bebidas_Alcoholicas</t>
+  </si>
+  <si>
+    <t>Articulo</t>
+  </si>
+  <si>
+    <t>02_Bebidas_Alcoholicas</t>
+  </si>
+  <si>
+    <t>No cumple Decreto N°17 del mes de febrero del 2024: "POR MEDIO DEL CUAL SE ESTABLECEN ZONAS DE PROHIBICION DEL PORTE, CONSUMO, DISTRIBUCION, OFRECIMIENTO Y COMERCIALIZACION DE SUSTANCIAS PSICOACTIVAS EN EL MUNICIPIO DE COPACABANA ANTIOQUIA"</t>
   </si>
 </sst>
 </file>
@@ -269,7 +316,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -320,11 +367,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -334,9 +418,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -345,15 +426,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,119 +725,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
     <col min="2" max="2" width="178.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" ht="257.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="B8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="257.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="C11" s="3">
+        <v>5630</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14">
+        <v>5630</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
     </row>

--- a/Bases de datos/Articulos.xlsx
+++ b/Bases de datos/Articulos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santiago\PycharmProjects\pythonProject\Alcaldia\Ensayos\Mejoras\Bases de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0FED86-A249-470D-9677-F19BAAA5CA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84716CF8-434C-49E4-8EB9-06E3C9427661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -728,7 +728,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
